--- a/teaching/traditional_assets/database/data/cyprus/cyprus_paper_forest_products.xlsx
+++ b/teaching/traditional_assets/database/data/cyprus/cyprus_paper_forest_products.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0251</v>
+        <v>0.0375</v>
       </c>
       <c r="G2">
-        <v>0.08842364532019704</v>
+        <v>0.03805668016194332</v>
       </c>
       <c r="H2">
-        <v>0.08842364532019704</v>
+        <v>0.03805668016194332</v>
       </c>
       <c r="I2">
-        <v>-0.005049261083743843</v>
+        <v>-0.03171390013495277</v>
       </c>
       <c r="J2">
-        <v>-0.005049261083743843</v>
+        <v>-0.03171390013495277</v>
       </c>
       <c r="K2">
-        <v>-0.234</v>
+        <v>-0.287</v>
       </c>
       <c r="L2">
-        <v>-0.02881773399014779</v>
+        <v>-0.03873144399460188</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.289</v>
+        <v>0.032</v>
       </c>
       <c r="V2">
-        <v>0.1039568345323741</v>
+        <v>0.01006289308176101</v>
       </c>
       <c r="W2">
-        <v>-0.018</v>
+        <v>-0.02094890510948905</v>
       </c>
       <c r="X2">
-        <v>0.1621036953760468</v>
+        <v>0.1201912746571094</v>
       </c>
       <c r="Y2">
-        <v>-0.1801036953760468</v>
+        <v>-0.1411401797665984</v>
       </c>
       <c r="Z2">
-        <v>0.4841979725700656</v>
+        <v>0.4176765684008794</v>
       </c>
       <c r="AA2">
-        <v>-0.002444841979725701</v>
+        <v>-0.01324615297897525</v>
       </c>
       <c r="AB2">
-        <v>0.0970162562922218</v>
+        <v>0.08527736457969526</v>
       </c>
       <c r="AC2">
-        <v>-0.0994610982719475</v>
+        <v>-0.09852351755867052</v>
       </c>
       <c r="AD2">
-        <v>4.33</v>
+        <v>3.1</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>4.33</v>
+        <v>3.1</v>
       </c>
       <c r="AG2">
-        <v>4.041</v>
+        <v>3.068</v>
       </c>
       <c r="AH2">
-        <v>0.609001406469761</v>
+        <v>0.4936305732484076</v>
       </c>
       <c r="AI2">
-        <v>0.2375205704882062</v>
+        <v>0.1878787878787879</v>
       </c>
       <c r="AJ2">
-        <v>0.5924351268142501</v>
+        <v>0.4910371318822023</v>
       </c>
       <c r="AK2">
-        <v>0.2252382810322724</v>
+        <v>0.1863007043964051</v>
       </c>
       <c r="AL2">
-        <v>0.1</v>
+        <v>0.073</v>
       </c>
       <c r="AM2">
-        <v>0.1</v>
+        <v>0.064</v>
       </c>
       <c r="AN2">
-        <v>12.81065088757396</v>
+        <v>17.31843575418995</v>
       </c>
       <c r="AO2">
-        <v>-0.41</v>
+        <v>-3.219178082191781</v>
       </c>
       <c r="AP2">
-        <v>11.95562130177515</v>
+        <v>17.13966480446927</v>
       </c>
       <c r="AQ2">
-        <v>-0.41</v>
+        <v>-3.671875</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0251</v>
+        <v>0.0375</v>
       </c>
       <c r="G3">
-        <v>0.08842364532019704</v>
+        <v>0.03805668016194332</v>
       </c>
       <c r="H3">
-        <v>0.08842364532019704</v>
+        <v>0.03805668016194332</v>
       </c>
       <c r="I3">
-        <v>-0.005049261083743843</v>
+        <v>-0.03171390013495277</v>
       </c>
       <c r="J3">
-        <v>-0.005049261083743843</v>
+        <v>-0.03171390013495277</v>
       </c>
       <c r="K3">
-        <v>-0.234</v>
+        <v>-0.287</v>
       </c>
       <c r="L3">
-        <v>-0.02881773399014779</v>
+        <v>-0.03873144399460188</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.289</v>
+        <v>0.032</v>
       </c>
       <c r="V3">
-        <v>0.1039568345323741</v>
+        <v>0.01006289308176101</v>
       </c>
       <c r="W3">
-        <v>-0.018</v>
+        <v>-0.02094890510948905</v>
       </c>
       <c r="X3">
-        <v>0.1621036953760468</v>
+        <v>0.1201912746571094</v>
       </c>
       <c r="Y3">
-        <v>-0.1801036953760468</v>
+        <v>-0.1411401797665984</v>
       </c>
       <c r="Z3">
-        <v>0.4841979725700656</v>
+        <v>0.4176765684008794</v>
       </c>
       <c r="AA3">
-        <v>-0.002444841979725701</v>
+        <v>-0.01324615297897525</v>
       </c>
       <c r="AB3">
-        <v>0.0970162562922218</v>
+        <v>0.08527736457969526</v>
       </c>
       <c r="AC3">
-        <v>-0.0994610982719475</v>
+        <v>-0.09852351755867052</v>
       </c>
       <c r="AD3">
-        <v>4.33</v>
+        <v>3.1</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>4.33</v>
+        <v>3.1</v>
       </c>
       <c r="AG3">
-        <v>4.041</v>
+        <v>3.068</v>
       </c>
       <c r="AH3">
-        <v>0.609001406469761</v>
+        <v>0.4936305732484076</v>
       </c>
       <c r="AI3">
-        <v>0.2375205704882062</v>
+        <v>0.1878787878787879</v>
       </c>
       <c r="AJ3">
-        <v>0.5924351268142501</v>
+        <v>0.4910371318822023</v>
       </c>
       <c r="AK3">
-        <v>0.2252382810322724</v>
+        <v>0.1863007043964051</v>
       </c>
       <c r="AL3">
-        <v>0.1</v>
+        <v>0.073</v>
       </c>
       <c r="AM3">
-        <v>0.1</v>
+        <v>0.064</v>
       </c>
       <c r="AN3">
-        <v>12.81065088757396</v>
+        <v>17.31843575418995</v>
       </c>
       <c r="AO3">
-        <v>-0.41</v>
+        <v>-3.219178082191781</v>
       </c>
       <c r="AP3">
-        <v>11.95562130177515</v>
+        <v>17.13966480446927</v>
       </c>
       <c r="AQ3">
-        <v>-0.41</v>
+        <v>-3.671875</v>
       </c>
     </row>
   </sheetData>
